--- a/data/excel_files_reduced/test_excel_3_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_3_reduced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1AF62-C28E-014E-AD9C-4B89087EFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E7908-1DA3-FC43-B476-740EC4784494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toyota_21_analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Created Month</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Bookings CDW Paid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiyacar Net </t>
-  </si>
-  <si>
-    <t>New MRG</t>
-  </si>
-  <si>
     <t>WV69OLN</t>
   </si>
   <si>
@@ -136,12 +130,6 @@
     <t>C-HR Hybrid</t>
   </si>
   <si>
-    <t>Col1</t>
-  </si>
-  <si>
-    <t>Col2</t>
-  </si>
-  <si>
     <t>Col3</t>
   </si>
   <si>
@@ -155,6 +143,9 @@
   </si>
   <si>
     <t>net per car</t>
+  </si>
+  <si>
+    <t>Hiyacar Net Before</t>
   </si>
 </sst>
 </file>
@@ -579,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -799,10 +790,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -813,12 +804,10 @@
     <col min="6" max="6" width="14.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -841,41 +830,29 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>3544.51</v>
@@ -884,7 +861,7 @@
         <v>211.2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9">
         <v>5812.91</v>
@@ -896,39 +873,23 @@
         <v>235</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H3" si="0">IF((B2*$Q$2)&gt;(C2*6),(B2-(B2*$Q$2)),(B2-(C2*6)))</f>
+        <f>IF((B2*$M$2)&gt;(C2*6),(B2-(B2*$M$2)),(B2-(C2*6)))</f>
         <v>1772.2550000000001</v>
       </c>
-      <c r="I2" s="7" t="e">
-        <f>(VLOOKUP(D2,updated_mrgs!B:G,3,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="7" t="e">
-        <f t="shared" ref="J2:J3" si="1">IF((B2*$Q$2)&gt;(I2*6),(B2-(B2*$Q$2)),(B2-(I2*6)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K2" s="7" t="e">
-        <f>VLOOKUP(D2,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="7" t="e">
-        <f t="shared" ref="L2:L3" si="2">IF((B2*$Q$2)&gt;(K2*6),(B2-(B2*$Q$2)),(B2-(K2*6)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="N2" s="7">
-        <f t="shared" ref="N2:N3" si="3">B2-(M2*6)</f>
+      <c r="J2" s="7">
+        <f>B2-(I2*6)</f>
         <v>3544.51</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="M2" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9">
         <v>3489.6</v>
@@ -937,7 +898,7 @@
         <v>211.2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9">
         <v>5655.61</v>
@@ -949,34 +910,18 @@
         <v>166</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B3*$M$2)&gt;(C3*6),(B3-(B3*$M$2)),(B3-(C3*6)))</f>
         <v>1744.8</v>
       </c>
       <c r="I3" s="7">
-        <f>(VLOOKUP(D3,updated_mrgs!B:G,3,FALSE))</f>
-        <v>428.75</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" si="1"/>
-        <v>917.09999999999991</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP(D3,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>357.29166666666669</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="2"/>
-        <v>1345.85</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f t="shared" si="3"/>
+        <f>B3-(I3*6)</f>
         <v>3489.6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -987,12 +932,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1003,12 +944,8 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1019,12 +956,8 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1035,12 +968,8 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1051,12 +980,8 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1067,12 +992,8 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1083,12 +1004,8 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1099,12 +1016,8 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1115,12 +1028,8 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1131,12 +1040,8 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1147,12 +1052,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1163,12 +1064,8 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1179,12 +1076,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1195,12 +1088,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1211,12 +1100,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1227,12 +1112,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1243,12 +1124,8 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1259,12 +1136,8 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1275,12 +1148,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1291,12 +1160,8 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1307,12 +1172,8 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1323,12 +1184,8 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1339,12 +1196,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1355,12 +1208,8 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1371,12 +1220,8 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1387,12 +1232,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1403,12 +1244,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1419,12 +1256,8 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1435,12 +1268,8 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1451,12 +1280,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1467,12 +1292,8 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1483,12 +1304,8 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1499,12 +1316,8 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1515,12 +1328,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1531,12 +1340,8 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1547,12 +1352,8 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1563,12 +1364,8 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1579,12 +1376,8 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1595,12 +1388,8 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1611,12 +1400,8 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1627,12 +1412,8 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1643,12 +1424,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1659,12 +1436,8 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1675,12 +1448,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1691,12 +1460,8 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1707,12 +1472,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1723,12 +1484,8 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1739,12 +1496,8 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1755,12 +1508,8 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1771,13 +1520,9 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H981 J1:J981 L1:L981 N1:N981">
+  <conditionalFormatting sqref="H1:H981 J1:J981">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -1796,7 +1541,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1815,45 +1560,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="12">
         <v>264</v>
@@ -1888,10 +1633,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12">
         <v>264</v>
